--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H2">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I2">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J2">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>0.5114971411892223</v>
+        <v>1.057953385142667</v>
       </c>
       <c r="R2">
-        <v>4.603474270703</v>
+        <v>9.521580466284</v>
       </c>
       <c r="S2">
-        <v>0.09891390540636416</v>
+        <v>0.128548542436705</v>
       </c>
       <c r="T2">
-        <v>0.09891390540636412</v>
+        <v>0.128548542436705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H3">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I3">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J3">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.06626581136622221</v>
+        <v>0.1556042283786666</v>
       </c>
       <c r="R3">
-        <v>0.5963923022959999</v>
+        <v>1.400438055408</v>
       </c>
       <c r="S3">
-        <v>0.01281455881046591</v>
+        <v>0.018906973630382</v>
       </c>
       <c r="T3">
-        <v>0.01281455881046591</v>
+        <v>0.01890697363038201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H4">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I4">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J4">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.04193324642088889</v>
+        <v>0.109708182842</v>
       </c>
       <c r="R4">
-        <v>0.3773992177880001</v>
+        <v>0.987373645578</v>
       </c>
       <c r="S4">
-        <v>0.008109099417865837</v>
+        <v>0.01333029148143124</v>
       </c>
       <c r="T4">
-        <v>0.008109099417865836</v>
+        <v>0.01333029148143124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.716471</v>
+        <v>0.229066</v>
       </c>
       <c r="H5">
-        <v>2.149413</v>
+        <v>0.687198</v>
       </c>
       <c r="I5">
-        <v>0.8801624363653041</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J5">
-        <v>0.880162436365304</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>3.756756699054333</v>
+        <v>0.02556842327533333</v>
       </c>
       <c r="R5">
-        <v>33.810810291489</v>
+        <v>0.230115809478</v>
       </c>
       <c r="S5">
-        <v>0.7264859308910934</v>
+        <v>0.003106737584667397</v>
       </c>
       <c r="T5">
-        <v>0.7264859308910931</v>
+        <v>0.003106737584667397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.292651</v>
+      </c>
+      <c r="I6">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J6">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.716471</v>
-      </c>
-      <c r="H6">
-        <v>2.149413</v>
-      </c>
-      <c r="I6">
-        <v>0.8801624363653041</v>
-      </c>
-      <c r="J6">
-        <v>0.880162436365304</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>0.4866977950053333</v>
+        <v>0.4505413521508889</v>
       </c>
       <c r="R6">
-        <v>4.380280155048</v>
+        <v>4.054872169358</v>
       </c>
       <c r="S6">
-        <v>0.09411817932103415</v>
+        <v>0.05474384310292547</v>
       </c>
       <c r="T6">
-        <v>0.09411817932103414</v>
+        <v>0.05474384310292547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.292651</v>
+      </c>
+      <c r="I7">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J7">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.037896</v>
+      </c>
+      <c r="O7">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P7">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q7">
+        <v>0.06626581136622221</v>
+      </c>
+      <c r="R7">
+        <v>0.5963923022959999</v>
+      </c>
+      <c r="S7">
+        <v>0.008051747443829759</v>
+      </c>
+      <c r="T7">
+        <v>0.008051747443829763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.292651</v>
+      </c>
+      <c r="I8">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J8">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.716471</v>
-      </c>
-      <c r="H7">
-        <v>2.149413</v>
-      </c>
-      <c r="I7">
-        <v>0.8801624363653041</v>
-      </c>
-      <c r="J7">
-        <v>0.880162436365304</v>
-      </c>
-      <c r="K7">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.478937</v>
+      </c>
+      <c r="N8">
+        <v>1.436811</v>
+      </c>
+      <c r="O8">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P8">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q8">
+        <v>0.04672046399566667</v>
+      </c>
+      <c r="R8">
+        <v>0.420484175961</v>
+      </c>
+      <c r="S8">
+        <v>0.00567685460716174</v>
+      </c>
+      <c r="T8">
+        <v>0.005676854607161742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.292651</v>
+      </c>
+      <c r="I9">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J9">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.334861</v>
+      </c>
+      <c r="O9">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P9">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q9">
+        <v>0.01088860072344444</v>
+      </c>
+      <c r="R9">
+        <v>0.097997406511</v>
+      </c>
+      <c r="S9">
+        <v>0.001323039154494772</v>
+      </c>
+      <c r="T9">
+        <v>0.001323039154494772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.289588</v>
-      </c>
-      <c r="O7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q7">
-        <v>0.3079841346493334</v>
-      </c>
-      <c r="R7">
-        <v>2.771857211844</v>
-      </c>
-      <c r="S7">
-        <v>0.05955832615317652</v>
-      </c>
-      <c r="T7">
-        <v>0.05955832615317651</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.21313</v>
+      </c>
+      <c r="I10">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J10">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N10">
+        <v>13.855658</v>
+      </c>
+      <c r="O10">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P10">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q10">
+        <v>4.946670043282222</v>
+      </c>
+      <c r="R10">
+        <v>44.52003038954</v>
+      </c>
+      <c r="S10">
+        <v>0.6010541039986295</v>
+      </c>
+      <c r="T10">
+        <v>0.6010541039986295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.21313</v>
+      </c>
+      <c r="I11">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J11">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.037896</v>
+      </c>
+      <c r="O11">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P11">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q11">
+        <v>0.7275583082755555</v>
+      </c>
+      <c r="R11">
+        <v>6.54802477448</v>
+      </c>
+      <c r="S11">
+        <v>0.08840329014489176</v>
+      </c>
+      <c r="T11">
+        <v>0.08840329014489179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.21313</v>
+      </c>
+      <c r="I12">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J12">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.478937</v>
+      </c>
+      <c r="N12">
+        <v>1.436811</v>
+      </c>
+      <c r="O12">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P12">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q12">
+        <v>0.5129622809366666</v>
+      </c>
+      <c r="R12">
+        <v>4.616660528430001</v>
+      </c>
+      <c r="S12">
+        <v>0.06232841112420462</v>
+      </c>
+      <c r="T12">
+        <v>0.06232841112420463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.21313</v>
+      </c>
+      <c r="I13">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J13">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.334861</v>
+      </c>
+      <c r="O13">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P13">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q13">
+        <v>0.1195502138811111</v>
+      </c>
+      <c r="R13">
+        <v>1.07595192493</v>
+      </c>
+      <c r="S13">
+        <v>0.01452616529067656</v>
+      </c>
+      <c r="T13">
+        <v>0.01452616529067657</v>
       </c>
     </row>
   </sheetData>
